--- a/Unity/Assets/Config/Excel/AbilityConfig/AIConfig/AICfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/AIConfig/AICfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\AIConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC0ECCC-3454-4F67-B5E2-8528E30814FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49CB7CD-69EE-4ECA-A778-DF97ACE0FDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -130,27 +130,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Tower1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI_AttackWhenBlock</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>被堵路时攻击</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AI_Escape</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>往大本营前进</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MonsterTower1</t>
+    <t>AI_TowerDefense_Escape</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_TowerDefense_AttackWhenBlock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_Monster1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_Tower1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -519,14 +519,14 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="23.77734375" style="2" customWidth="1"/>
@@ -679,10 +679,10 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="str">
         <f t="shared" ref="B8:B10" si="1">C8&amp;"_"&amp;D8</f>
-        <v>Tower1_1</v>
+        <v>TowerDefense_Tower1_1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -697,46 +697,46 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MonsterTower1_1</v>
+        <v>TowerDefense_Monster1_1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>MonsterTower1_2</v>
+        <v>TowerDefense_Monster1_2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="str">
         <f t="shared" ref="B11:B12" si="2">C11&amp;"_"&amp;D11</f>
-        <v>MonsterTower1_3</v>
+        <v>TowerDefense_Monster1_3</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -751,10 +751,10 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>MonsterTower1_4</v>
+        <v>TowerDefense_Monster1_4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>4</v>

--- a/Unity/Assets/Config/Excel/AbilityConfig/AIConfig/AICfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/AIConfig/AICfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\AIConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49CB7CD-69EE-4ECA-A778-DF97ACE0FDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A23EE0A-20EC-4ADE-AB4B-5E926F949DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1212" windowWidth="23040" windowHeight="11748" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>所属ai</t>
   </si>
@@ -516,49 +516,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="29.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -566,203 +562,161 @@
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
         <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="str">
-        <f>C4&amp;"_"&amp;D4</f>
-        <v>1_1</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="str">
-        <f t="shared" ref="B5:B7" si="0">C5&amp;"_"&amp;D5</f>
-        <v>1_2</v>
-      </c>
-      <c r="C5" s="2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Monster1_1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Monster1_2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="str">
-        <f t="shared" ref="B8:B10" si="1">C8&amp;"_"&amp;D8</f>
-        <v>TowerDefense_Tower1_1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>TowerDefense_Monster1_1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>TowerDefense_Monster1_2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="2" t="str">
-        <f t="shared" ref="B11:B12" si="2">C11&amp;"_"&amp;D11</f>
-        <v>TowerDefense_Monster1_3</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>TowerDefense_Monster1_4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/AIConfig/AICfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/AIConfig/AICfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\AIConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A23EE0A-20EC-4ADE-AB4B-5E926F949DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E015109-6730-4F3C-B335-829871E1B67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1212" windowWidth="23040" windowHeight="11748" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>所属ai</t>
   </si>
@@ -151,6 +151,14 @@
   </si>
   <si>
     <t>TowerDefense_Tower1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitFrameNum</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔多少帧执行</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -516,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -528,13 +536,13 @@
     <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="5" max="6" width="23.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -551,10 +559,13 @@
         <v>15</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -571,10 +582,13 @@
         <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -591,10 +605,13 @@
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -608,7 +625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -622,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
@@ -636,7 +653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
@@ -649,8 +666,11 @@
       <c r="E7" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
@@ -664,7 +684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
@@ -678,7 +698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
@@ -692,7 +712,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
@@ -706,7 +726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
@@ -718,6 +738,9 @@
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -728,25 +751,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475D6E4F-5837-CD4C-96C1-E77A9ED6A8D0}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="23.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -766,11 +790,14 @@
         <v>15</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -790,11 +817,14 @@
         <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -813,11 +843,14 @@
       <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="str">
         <f>C4&amp;"_"&amp;D4</f>

--- a/Unity/Assets/Config/Excel/AbilityConfig/AIConfig/AICfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/AIConfig/AICfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\AIConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E015109-6730-4F3C-B335-829871E1B67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90600B44-62A7-4F81-B4CE-347CC0E46C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="809" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
   <si>
     <t>所属ai</t>
   </si>
@@ -159,6 +159,49 @@
   </si>
   <si>
     <t>间隔多少帧执行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerDefense_zpbTest1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string#ref=SelectObjectCfgCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_AI_HostileHome</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResetTargetTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多久后(秒)重置目标,-1表示不重置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_AI_HostileAll</t>
+  </si>
+  <si>
+    <t>SelectObject_AI_HostileAll</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_AI_HostilePlayer</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +275,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +285,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -524,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -535,14 +581,16 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="23.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="24.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="19.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -562,10 +610,16 @@
         <v>32</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -585,10 +639,16 @@
         <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -608,10 +668,16 @@
         <v>33</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -624,8 +690,14 @@
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -638,8 +710,14 @@
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
@@ -652,8 +730,14 @@
       <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G6" s="2">
+        <v>3</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
@@ -669,8 +753,14 @@
       <c r="F7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
@@ -683,8 +773,14 @@
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G8" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>30</v>
       </c>
@@ -697,8 +793,14 @@
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
@@ -711,8 +813,14 @@
       <c r="E10" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
@@ -725,8 +833,14 @@
       <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G11" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
@@ -742,6 +856,59 @@
       <c r="F12" s="2">
         <v>5</v>
       </c>
+      <c r="G12" s="2">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -751,10 +918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475D6E4F-5837-CD4C-96C1-E77A9ED6A8D0}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -763,14 +930,16 @@
     <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="19.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -793,11 +962,17 @@
         <v>32</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -820,11 +995,17 @@
         <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -846,11 +1027,17 @@
       <c r="G3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="str">
         <f>C4&amp;"_"&amp;D4</f>
@@ -867,6 +1054,12 @@
       </c>
       <c r="F4" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/AIConfig/AICfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/AIConfig/AICfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\AIConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90600B44-62A7-4F81-B4CE-347CC0E46C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0BC790-CE06-41B5-A266-D0A2DB284358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="809" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="49">
   <si>
     <t>所属ai</t>
   </si>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>array,int#sep=,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AI_Attack</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -166,10 +162,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>string#ref=SelectObjectCfgCategory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SelectObject</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -202,6 +194,30 @@
   </si>
   <si>
     <t>SelectObject_AI_HostilePlayer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_TowerDefense_Attack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能攻击时攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),string#ref=SelectObjectCfgCategory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_AI_HostileHome;SelectObject_AI_HostileAll</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔多少次执行(每次0.5秒)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -570,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -607,13 +623,13 @@
         <v>15</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>16</v>
@@ -639,13 +655,13 @@
         <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -665,13 +681,13 @@
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>4</v>
@@ -685,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
@@ -694,7 +710,7 @@
         <v>-1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -714,18 +730,18 @@
         <v>3</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>5</v>
@@ -734,21 +750,21 @@
         <v>3</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F7" s="2">
         <v>5</v>
@@ -757,18 +773,18 @@
         <v>3</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
@@ -777,32 +793,32 @@
         <v>-1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G9" s="2">
         <v>3</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -811,104 +827,124 @@
         <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G10" s="2">
         <v>3</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G11" s="2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>3</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="2">
-        <v>-1</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="2">
-        <v>5</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
         <v>3</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="H16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -920,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475D6E4F-5837-CD4C-96C1-E77A9ED6A8D0}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -959,13 +995,13 @@
         <v>15</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>16</v>
@@ -995,13 +1031,13 @@
         <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="K2" s="3"/>
     </row>
@@ -1025,13 +1061,13 @@
         <v>3</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>4</v>
@@ -1050,16 +1086,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="H4" s="2">
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/AIConfig/AICfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/AIConfig/AICfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\AIConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\AIConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0BC790-CE06-41B5-A266-D0A2DB284358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0BED5A-C9FA-47A7-B02A-956B395F1460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -592,21 +592,21 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="19.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.75" style="2" customWidth="1"/>
+    <col min="6" max="7" width="19.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="29" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -635,7 +635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -664,7 +664,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -693,7 +693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -713,7 +713,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -733,7 +733,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
@@ -753,7 +753,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
@@ -776,7 +776,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
@@ -796,7 +796,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
@@ -816,7 +816,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
@@ -836,7 +836,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
@@ -856,7 +856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
@@ -876,7 +876,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
@@ -899,7 +899,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
@@ -919,7 +919,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
@@ -942,7 +942,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
@@ -960,22 +960,22 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="str">
         <f>C4&amp;"_"&amp;D4</f>

--- a/Unity/Assets/Config/Excel/AbilityConfig/AIConfig/AICfg.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/AIConfig/AICfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\AIConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\AIConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0BED5A-C9FA-47A7-B02A-956B395F1460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20885173-0888-4AB6-9AD3-9425D219DA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="51">
   <si>
     <t>所属ai</t>
   </si>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AI_TowerDefense_AttackWhenBlock</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TowerDefense_Monster1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -209,15 +205,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>SelectObject_AI_HostileHome;SelectObject_AI_HostileAll</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>间隔多少次执行(每次0.5秒)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>(list#sep=;),int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI_AttackWhenBlock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_AI_HostileAllWhenAttack</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_AI_HostilePlayer;SelectObject_AI_HostileAllWhenBlock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectObject_AI_HostileHome;SelectObject_AI_HostileAllWhenBlock</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -586,27 +594,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="26.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.75" style="2" customWidth="1"/>
-    <col min="6" max="7" width="19.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="19.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="29" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -623,19 +631,19 @@
         <v>15</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -655,16 +663,16 @@
         <v>17</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -681,19 +689,19 @@
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -710,10 +718,10 @@
         <v>-1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -730,10 +738,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
@@ -750,10 +758,10 @@
         <v>3</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
@@ -773,12 +781,12 @@
         <v>3</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -796,35 +804,35 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="G9" s="2">
         <v>3</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>25</v>
@@ -833,12 +841,12 @@
         <v>3</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2">
         <v>3</v>
@@ -853,98 +861,141 @@
         <v>3</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2">
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="2">
-        <v>3</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G15" s="2">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2">
         <v>2</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="2">
-        <v>3</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="G18" s="2">
+        <v>3</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -960,22 +1011,22 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="23.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -995,20 +1046,20 @@
         <v>15</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1031,17 +1082,17 @@
         <v>17</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1061,19 +1112,19 @@
         <v>3</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="str">
         <f>C4&amp;"_"&amp;D4</f>
@@ -1095,7 +1146,7 @@
         <v>3</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
